--- a/config/testcases/Report_EE.GS03(Clone).xlsx
+++ b/config/testcases/Report_EE.GS03(Clone).xlsx
@@ -13,14 +13,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="CMq+Ox/4xkxcoM6SXu2O8KsuWpiL2cKqzSnfEZtyrNI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="h5pN41ENDRWMiHm8rZlcvcb7/ZPlcewHC5ygLEv3w1M="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>TCID</t>
   </si>
@@ -181,28 +181,10 @@
     <t>*GS03*,120</t>
   </si>
   <si>
-    <t>Kiểm tra audio từ drag</t>
+    <t>Sleep</t>
   </si>
   <si>
-    <t>getAudiosSourceByTime</t>
-  </si>
-  <si>
-    <t>FxSource,10</t>
-  </si>
-  <si>
-    <t>$.turn[?(@.order==1)].word[0].audio[*].file_path</t>
-  </si>
-  <si>
-    <t>Kiểm tra text từ cần drag</t>
-  </si>
-  <si>
-    <t>getText</t>
-  </si>
-  <si>
-    <t>WholeWord(Clone),TextMeshProUGUI</t>
-  </si>
-  <si>
-    <t>$.turn[?(@.order==1)].word[0].text</t>
+    <t>second,2</t>
   </si>
   <si>
     <t>Click skip game</t>
@@ -388,8 +370,11 @@
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -399,9 +384,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -1374,27 +1356,23 @@
       <c r="B10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
+      <c r="D10" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="25"/>
       <c r="G10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>56</v>
-      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
@@ -1412,31 +1390,29 @@
       <c r="Z10" s="13"/>
     </row>
     <row r="11" ht="24.75" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
+      <c r="C11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="20"/>
       <c r="G11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="25" t="s">
-        <v>60</v>
-      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
@@ -1454,20 +1430,20 @@
       <c r="Z11" s="13"/>
     </row>
     <row r="12" ht="24.75" customHeight="1">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>62</v>
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="12" t="s">
@@ -1493,70 +1469,30 @@
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
     </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="A13" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L13 M1:N1">
+  <conditionalFormatting sqref="L1:L12 M1:N1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L13 M1:N1">
+  <conditionalFormatting sqref="L1:L12 M1:N1">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L13 M1:N1">
+  <conditionalFormatting sqref="L1:L12 M1:N1">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G12">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D13 H2:H13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D12 H2:H12">
       <formula1>Keywords!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A12">
       <formula1>TestCase!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
@@ -1588,13 +1524,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>1</v>
@@ -7080,9 +7016,18 @@
       <c r="Z142" s="38"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="38"/>
-      <c r="B143" s="38"/>
-      <c r="C143" s="38"/>
+      <c r="A143" s="38" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"clickLesson")</f>
+        <v>clickLesson</v>
+      </c>
+      <c r="B143" s="38" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property")</f>
+        <v>element,component,property</v>
+      </c>
+      <c r="C143" s="38" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D143" s="38"/>
       <c r="E143" s="38"/>
       <c r="F143" s="38"/>
@@ -7108,9 +7053,15 @@
       <c r="Z143" s="38"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="38"/>
+      <c r="A144" s="38" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMapMgo")</f>
+        <v>swipeMapMgo</v>
+      </c>
       <c r="B144" s="38"/>
-      <c r="C144" s="38"/>
+      <c r="C144" s="38" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D144" s="38"/>
       <c r="E144" s="38"/>
       <c r="F144" s="38"/>
@@ -7136,9 +7087,18 @@
       <c r="Z144" s="38"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="38"/>
-      <c r="B145" s="38"/>
-      <c r="C145" s="38"/>
+      <c r="A145" s="38" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"verifyFlow")</f>
+        <v>verifyFlow</v>
+      </c>
+      <c r="B145" s="38" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"file expected")</f>
+        <v>file expected</v>
+      </c>
+      <c r="C145" s="38" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D145" s="38"/>
       <c r="E145" s="38"/>
       <c r="F145" s="38"/>
@@ -7164,9 +7124,15 @@
       <c r="Z145" s="38"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="38"/>
+      <c r="A146" s="38" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFileWhichCondition")</f>
+        <v>setVariableFileWhichCondition</v>
+      </c>
       <c r="B146" s="38"/>
-      <c r="C146" s="38"/>
+      <c r="C146" s="38" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D146" s="38"/>
       <c r="E146" s="38"/>
       <c r="F146" s="38"/>
@@ -7192,7 +7158,10 @@
       <c r="Z146" s="38"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="38"/>
+      <c r="A147" s="38" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableTypeOfStringFile")</f>
+        <v>setVariableTypeOfStringFile</v>
+      </c>
       <c r="B147" s="38"/>
       <c r="C147" s="38"/>
       <c r="D147" s="38"/>
@@ -7220,7 +7189,10 @@
       <c r="Z147" s="38"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="38"/>
+      <c r="A148" s="38" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableTypeOfIntFile")</f>
+        <v>setVariableTypeOfIntFile</v>
+      </c>
       <c r="B148" s="38"/>
       <c r="C148" s="38"/>
       <c r="D148" s="38"/>
@@ -7248,7 +7220,10 @@
       <c r="Z148" s="38"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="38"/>
+      <c r="A149" s="38" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPath")</f>
+        <v>getPath</v>
+      </c>
       <c r="B149" s="38"/>
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
@@ -17208,10 +17183,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="42" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
